--- a/database/industries/urea/shapdis/eps.xlsx
+++ b/database/industries/urea/shapdis/eps.xlsx
@@ -34,6 +34,9 @@
     <t>capital_now</t>
   </si>
   <si>
+    <t>1401</t>
+  </si>
+  <si>
     <t>1400</t>
   </si>
   <si>
@@ -46,7 +49,7 @@
     <t>1396</t>
   </si>
   <si>
-    <t>1395</t>
+    <t>1401/10/13</t>
   </si>
   <si>
     <t>1400/10/06</t>
@@ -59,9 +62,6 @@
   </si>
   <si>
     <t>1396/08/24</t>
-  </si>
-  <si>
-    <t>1395/09/28</t>
   </si>
 </sst>
 </file>
@@ -453,16 +453,16 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>21359</v>
+        <v>42638</v>
       </c>
       <c r="D2">
-        <v>13500</v>
+        <v>23500</v>
       </c>
       <c r="E2">
-        <v>5998324</v>
+        <v>6000000</v>
       </c>
       <c r="F2">
-        <v>5998324</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -473,16 +473,16 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>3918</v>
+        <v>21359</v>
       </c>
       <c r="D3">
-        <v>2080</v>
+        <v>13500</v>
       </c>
       <c r="E3">
-        <v>6000000</v>
+        <v>5998324</v>
       </c>
       <c r="F3">
-        <v>5998324</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -493,16 +493,16 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>2345</v>
+        <v>3918</v>
       </c>
       <c r="D4">
-        <v>1700</v>
+        <v>2080</v>
       </c>
       <c r="E4">
         <v>6000000</v>
       </c>
       <c r="F4">
-        <v>5998324</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -513,16 +513,16 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>599</v>
+        <v>2345</v>
       </c>
       <c r="D5">
-        <v>465</v>
+        <v>1700</v>
       </c>
       <c r="E5">
         <v>6000000</v>
       </c>
       <c r="F5">
-        <v>5998324</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -533,16 +533,16 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>1218</v>
+        <v>599</v>
       </c>
       <c r="D6">
-        <v>1096</v>
+        <v>465</v>
       </c>
       <c r="E6">
         <v>6000000</v>
       </c>
       <c r="F6">
-        <v>5998324</v>
+        <v>6000000</v>
       </c>
     </row>
   </sheetData>
